--- a/Statistical_Study.xlsx
+++ b/Statistical_Study.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evanteam\Desktop\Antuan_curro\FARC_imb\ExcelsPaper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseantonio.sanz.DYC\Documents\GitHub\FARCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF3FC82-6933-4FC6-A874-BC590A4BAB02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Mean_G" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="34">
   <si>
     <t>p-valor</t>
   </si>
@@ -123,12 +122,18 @@
   </si>
   <si>
     <t>C-SVMCS</t>
+  </si>
+  <si>
+    <t>Method (MinSupp)</t>
+  </si>
+  <si>
+    <t>Method (MaxDepth)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,8 +445,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,12 +736,9 @@
         <v>86.78</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -746,188 +748,284 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
+      <c r="A28">
+        <v>0.05</v>
       </c>
       <c r="B28">
-        <v>213.25</v>
-      </c>
-      <c r="C28">
-        <v>1.6500000000000001E-2</v>
+        <v>83.39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
+      <c r="A29">
+        <v>0.03</v>
       </c>
       <c r="B29">
-        <v>217.76</v>
+        <v>101.98</v>
       </c>
       <c r="C29">
-        <v>1.37E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
+      <c r="A30">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B30">
-        <v>183.28</v>
+        <v>113.12</v>
       </c>
       <c r="C30">
-        <v>0.1764</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>267.14</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2.8200000000000001E-6</v>
+        <v>5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>130.55000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>130.96</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>131.26</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>137.22999999999999</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>213.25</v>
+      </c>
+      <c r="C39">
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>217.76</v>
+      </c>
+      <c r="C40">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>183.28</v>
+      </c>
+      <c r="C41">
+        <v>0.1764</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>267.14</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.8200000000000001E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>27</v>
       </c>
-      <c r="B32">
+      <c r="B43">
         <v>292.39999999999998</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C43" s="1">
         <v>7.3900000000000003E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B33">
+      <c r="B44">
         <v>294.83</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C44" s="1">
         <v>4.6099999999999996E-9</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>151.86000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38">
-        <v>4.24E-2</v>
-      </c>
-      <c r="D38">
-        <v>786.5</v>
-      </c>
-      <c r="E38">
-        <v>1424.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41">
-        <v>193.76</v>
-      </c>
-      <c r="C41" s="1">
-        <v>7.61E-7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42">
-        <v>157.38</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>204.11</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3.0199999999999999E-8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44">
-        <v>164.11</v>
-      </c>
-      <c r="C44">
-        <v>1.5E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
       <c r="B45">
+        <v>151.86000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>4.24E-2</v>
+      </c>
+      <c r="D49">
+        <v>786.5</v>
+      </c>
+      <c r="E49">
+        <v>1424.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>193.76</v>
+      </c>
+      <c r="C52" s="1">
+        <v>7.61E-7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>157.38</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>204.11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.0199999999999999E-8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55">
+        <v>164.11</v>
+      </c>
+      <c r="C55">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
         <v>108.14</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="O46" s="1"/>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="O57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -935,10 +1033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99CD6A9-1F67-4E3E-9108-2A7D922042CD}">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1223,12 +1323,9 @@
         <v>31.43</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1238,171 +1335,165 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
+      <c r="A28">
+        <v>0.05</v>
       </c>
       <c r="B28">
-        <v>66.430000000000007</v>
-      </c>
-      <c r="C28">
-        <v>0.19489999999999999</v>
+        <v>29.54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
+      <c r="A29">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B29">
-        <v>74.89</v>
+        <v>35.409999999999997</v>
       </c>
       <c r="C29">
-        <v>0.16289999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
+      <c r="A30">
+        <v>0.03</v>
       </c>
       <c r="B30">
-        <v>69.84</v>
+        <v>35.54</v>
       </c>
       <c r="C30">
-        <v>0.19489999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>76.61</v>
-      </c>
-      <c r="C31">
-        <v>0.16009999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>98.57</v>
-      </c>
-      <c r="C32">
-        <v>1.1000000000000001E-3</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
+      <c r="A33">
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>107.16</v>
-      </c>
-      <c r="C33" s="1">
-        <v>9.1600000000000004E-5</v>
+        <v>40.54</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
+      <c r="A34">
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>49</v>
+        <v>40.54</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>47.8</v>
+      </c>
+      <c r="C35">
+        <v>0.8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>49.11</v>
+      </c>
+      <c r="C36">
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38">
-        <v>0.1011</v>
-      </c>
-      <c r="D38">
-        <v>76</v>
-      </c>
-      <c r="E38">
-        <v>177</v>
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>66.430000000000007</v>
+      </c>
+      <c r="C39">
+        <v>0.19489999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>74.89</v>
+      </c>
+      <c r="C40">
+        <v>0.16289999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>54.57</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.16400000000000001</v>
+        <v>69.84</v>
+      </c>
+      <c r="C41">
+        <v>0.19489999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>63.27</v>
-      </c>
-      <c r="C42" s="1">
-        <v>8.6499999999999994E-2</v>
+        <v>76.61</v>
+      </c>
+      <c r="C42">
+        <v>0.16009999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>60.11</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.14710000000000001</v>
+        <v>98.57</v>
+      </c>
+      <c r="C43">
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>58.36</v>
-      </c>
-      <c r="C44">
-        <v>0.14799999999999999</v>
+        <v>107.16</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9.1600000000000004E-5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,6 +1501,108 @@
         <v>25</v>
       </c>
       <c r="B45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>0.1011</v>
+      </c>
+      <c r="D49">
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>54.57</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>63.27</v>
+      </c>
+      <c r="C53" s="1">
+        <v>8.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>60.11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.14710000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55">
+        <v>58.36</v>
+      </c>
+      <c r="C55">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
         <v>41.18</v>
       </c>
     </row>
@@ -1419,10 +1612,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F79980-D7FB-47FD-983B-FC9425767829}">
-  <dimension ref="A1:E45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1707,12 +1902,9 @@
         <v>56.82</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1722,174 +1914,165 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
+      <c r="A28">
+        <v>0.05</v>
       </c>
       <c r="B28">
-        <v>148.53</v>
-      </c>
-      <c r="C28">
-        <v>3.5900000000000001E-2</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
+      <c r="A29">
+        <v>0.03</v>
       </c>
       <c r="B29">
-        <v>144.97</v>
+        <v>67.09</v>
       </c>
       <c r="C29">
-        <v>4.0099999999999997E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>6</v>
+      <c r="A30">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B30">
-        <v>117.59</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="C30">
-        <v>0.377</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>179.51</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.36E-4</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>196.81</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2.5799999999999999E-6</v>
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>28</v>
+      <c r="A33">
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>193.27</v>
-      </c>
-      <c r="C33" s="1">
-        <v>5.5999999999999997E-6</v>
+        <v>83.18</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>25</v>
+      <c r="A34">
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>100.82</v>
+        <v>90</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>90.29</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>90.52</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38">
-        <v>0.21809999999999999</v>
-      </c>
-      <c r="D38">
-        <v>387.5</v>
-      </c>
-      <c r="E38">
-        <v>602.5</v>
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>148.53</v>
+      </c>
+      <c r="C39">
+        <v>3.5900000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" t="s">
-        <v>13</v>
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>144.97</v>
+      </c>
+      <c r="C40">
+        <v>4.0099999999999997E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>134.01</v>
-      </c>
-      <c r="C41" s="1">
-        <v>2.21E-6</v>
+        <v>117.59</v>
+      </c>
+      <c r="C41">
+        <v>0.377</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>99.8</v>
+        <v>179.51</v>
       </c>
       <c r="C42" s="1">
-        <v>1.8700000000000001E-2</v>
+        <v>1.36E-4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>142.83000000000001</v>
+        <v>196.81</v>
       </c>
       <c r="C43" s="1">
-        <v>1.2800000000000001E-7</v>
+        <v>2.5799999999999999E-6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>107.97</v>
-      </c>
-      <c r="C44">
-        <v>4.1999999999999997E-3</v>
+        <v>193.27</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5.5999999999999997E-6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1897,6 +2080,111 @@
         <v>25</v>
       </c>
       <c r="B45">
+        <v>100.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>0.21809999999999999</v>
+      </c>
+      <c r="D49">
+        <v>387.5</v>
+      </c>
+      <c r="E49">
+        <v>602.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>134.01</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.21E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>99.8</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>142.83000000000001</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.2800000000000001E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55">
+        <v>107.97</v>
+      </c>
+      <c r="C55">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
         <v>67.900000000000006</v>
       </c>
     </row>
